--- a/업체 list.xlsx
+++ b/업체 list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Vendor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,38 @@
   </si>
   <si>
     <t>차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네스앤텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.nesnt.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방산 - 자동제어계측시스템(무인기) 제조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0 - 신우와비슷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.utech.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">방산 - 광전자/마일즈장비 제조, 종합군수지원요소 개발, 공급 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,12 +282,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -445,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -508,6 +546,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -817,7 +867,7 @@
   <dimension ref="B3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F17" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -939,38 +989,68 @@
       <c r="I6" s="18">
         <v>54</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="B7" s="17">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="H7" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="J7" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="20"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="20"/>
+      <c r="B8" s="29">
+        <v>4</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1999.05</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
@@ -1159,9 +1239,11 @@
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1"/>
     <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="F8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/업체 list.xlsx
+++ b/업체 list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Vendor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,24 @@
   </si>
   <si>
     <t xml:space="preserve">방산 - 광전자/마일즈장비 제조, 종합군수지원요소 개발, 공급 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0 - OT비 없음
+  이직율 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://medizs.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검안용굴절력측정기 제조,도소매
+5,000~6,000만원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -558,6 +576,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -867,7 +888,7 @@
   <dimension ref="B3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F16:F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -879,10 +900,10 @@
     <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="46.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
@@ -1052,14 +1073,28 @@
       <c r="L8" s="30"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+    <row r="9" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2011.11</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>58</v>
+      </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -1241,9 +1276,10 @@
     <hyperlink ref="F6" r:id="rId2"/>
     <hyperlink ref="F7" r:id="rId3"/>
     <hyperlink ref="F8" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/업체 list.xlsx
+++ b/업체 list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Vendor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,23 @@
   <si>
     <t>검안용굴절력측정기 제조,도소매
 5,000~6,000만원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿스굿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계룡시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8-낮은 연봉,
+타업무병행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건조기, 제습 보관함 제조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +658,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,7 +693,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -888,7 +905,7 @@
   <dimension ref="B3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1101,15 +1118,27 @@
       <c r="L9" s="18"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+    <row r="10" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>6</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="18">
+        <v>12</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>

--- a/업체 list.xlsx
+++ b/업체 list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Vendor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,39 @@
   </si>
   <si>
     <t>건조기, 제습 보관함 제조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀바스헬스케어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인텔리안 테크놀로지스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계 1위 선박용 위성 안테나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 - 업무분담,
+직원관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intelliantech.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체성분 분석기,혈압계, 점자책 관련 기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3-야근,OT비 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,7 +691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,7 +726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -905,14 +938,14 @@
   <dimension ref="B3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" bestFit="1" customWidth="1"/>
@@ -1145,27 +1178,49 @@
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="17">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+    <row r="12" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="H12" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -1173,7 +1228,9 @@
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
+      <c r="B13" s="17">
+        <v>9</v>
+      </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -1187,7 +1244,9 @@
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+      <c r="B14" s="17">
+        <v>10</v>
+      </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -1201,7 +1260,9 @@
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
+      <c r="B15" s="17">
+        <v>11</v>
+      </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -1215,7 +1276,9 @@
       <c r="M15" s="20"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
+      <c r="B16" s="17">
+        <v>12</v>
+      </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -1229,7 +1292,9 @@
       <c r="M16" s="20"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
+      <c r="B17" s="17">
+        <v>13</v>
+      </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -1243,7 +1308,9 @@
       <c r="M17" s="20"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
+      <c r="B18" s="17">
+        <v>14</v>
+      </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>

--- a/업체 list.xlsx
+++ b/업체 list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>Vendor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,34 @@
   </si>
   <si>
     <t>2.3-야근,OT비 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트프로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전 대덕구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.smart-pro.co.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>embedded 장비 개발 및 S/W 공급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주4일, 10~6시 근무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -629,6 +657,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -947,7 +978,7 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="52.625" style="1" customWidth="1"/>
@@ -1231,15 +1262,31 @@
       <c r="B13" s="17">
         <v>9</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="18">
+        <v>2016.08</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="L13" s="18"/>
       <c r="M13" s="20"/>
     </row>
@@ -1373,9 +1420,10 @@
     <hyperlink ref="F7" r:id="rId3"/>
     <hyperlink ref="F8" r:id="rId4"/>
     <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F13" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/업체 list.xlsx
+++ b/업체 list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>Vendor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,22 @@
   </si>
   <si>
     <t>주4일, 10~6시 근무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항공사업부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자/제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남 아산시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,7 +985,7 @@
   <dimension ref="B3:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1294,15 +1310,23 @@
       <c r="B14" s="17">
         <v>10</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="18" t="s">
+        <v>79</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="K14" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="L14" s="18"/>
       <c r="M14" s="20"/>
     </row>
